--- a/MidtermPrep.xlsx
+++ b/MidtermPrep.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sudo/CodeProjects/Tufts/CS0135/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D97DEE3-8E15-9044-8685-275BB210CB98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77046C0A-E1EC-7349-A7E5-ED738239D172}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1040" yWindow="880" windowWidth="34960" windowHeight="22500" xr2:uid="{0A58F0B0-5C49-084F-83C2-F3EB73A959F6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="105">
   <si>
     <t>1. Why do we have to perform EDA before fitting a model to the data</t>
   </si>
@@ -227,9 +227,6 @@
     <t>translate the meaning into x out of over 10,000 for common people</t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
     <t>0.80 train</t>
   </si>
   <si>
@@ -273,13 +270,94 @@
   </si>
   <si>
     <t>for exam similar to hw2</t>
+  </si>
+  <si>
+    <t>put other peoples names if you discuss a question</t>
+  </si>
+  <si>
+    <t>there is a lot to observe before diving into the data…</t>
+  </si>
+  <si>
+    <t>set of data that is "locked away" and unseen by the training…used to gauge model effectivenesss</t>
+  </si>
+  <si>
+    <t>Multiple Choice</t>
+  </si>
+  <si>
+    <t>Short Answers</t>
+  </si>
+  <si>
+    <t>Code Snippets</t>
+  </si>
+  <si>
+    <t>function calls</t>
+  </si>
+  <si>
+    <t>loop over folds</t>
+  </si>
+  <si>
+    <t>use safari for browser</t>
+  </si>
+  <si>
+    <t>6 questions (a….f)</t>
+  </si>
+  <si>
+    <t>L1, L2…is this characteristic this or that</t>
+  </si>
+  <si>
+    <t>True or False</t>
+  </si>
+  <si>
+    <t>3 sources of error</t>
+  </si>
+  <si>
+    <t>can mitigate 2 of them</t>
+  </si>
+  <si>
+    <t>irreproducible - can't change</t>
+  </si>
+  <si>
+    <t>Lasso - Shrink to zero</t>
+  </si>
+  <si>
+    <t>Ridge - minimize</t>
+  </si>
+  <si>
+    <t>feature selection</t>
+  </si>
+  <si>
+    <t>difference between actual and predicted values…</t>
+  </si>
+  <si>
+    <t>sklearn.linear_model.LinearRegression</t>
+  </si>
+  <si>
+    <t>strip out nan values?</t>
+  </si>
+  <si>
+    <t>used for training</t>
+  </si>
+  <si>
+    <t>uses fit data for training?</t>
+  </si>
+  <si>
+    <t>how well</t>
+  </si>
+  <si>
+    <t>For this reason, it's common practice to scale (or standardize) the values in numeric column by subtracting the mean and dividing by the standard deviation.</t>
+  </si>
+  <si>
+    <t>train test split</t>
+  </si>
+  <si>
+    <t>EDA, clean data, try models, check rmse, iterate, etc</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -302,6 +380,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -323,12 +407,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -344,6 +429,133 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>743785</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>35365</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>573922</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>68261</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="IMG_0008.heic">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96D59EC2-0C97-A613-DD17-AF33F9E835D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm rot="5400000">
+          <a:off x="14874161" y="5507585"/>
+          <a:ext cx="5122591" cy="3950366"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>785267</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>174503</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>269472</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>192537</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="Graph">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B92A0A93-3BCD-82E2-F933-5270B53C5E36}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15501756" y="10150305"/>
+          <a:ext cx="6076571" cy="3275438"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -643,10 +855,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BFE5CD0-E7AB-FA43-9B95-AA40518F28F2}">
-  <dimension ref="A2:T61"/>
+  <dimension ref="A2:T64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="150" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="200" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -658,6 +870,9 @@
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="C2" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
@@ -763,6 +978,9 @@
       <c r="B14" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="C14" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B15" s="1" t="s">
@@ -777,147 +995,225 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F24" t="s">
+        <v>93</v>
+      </c>
+      <c r="H24" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="F25" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D28" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C30" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D31" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C31" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D32" t="s">
+      <c r="C32" t="s">
+        <v>80</v>
+      </c>
+      <c r="K32" t="s">
+        <v>63</v>
+      </c>
+      <c r="L32" t="s">
         <v>64</v>
       </c>
-      <c r="E32" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D33" t="s">
+      <c r="C33" t="s">
+        <v>103</v>
+      </c>
+      <c r="K33" t="s">
+        <v>65</v>
+      </c>
+      <c r="L33" t="s">
         <v>66</v>
       </c>
-      <c r="E33" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C34" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C36" t="s">
+        <v>81</v>
+      </c>
+      <c r="E36" t="s">
+        <v>86</v>
+      </c>
+      <c r="G36" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C37" t="s">
+        <v>82</v>
+      </c>
+      <c r="G37" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C38" t="s">
+        <v>83</v>
+      </c>
+      <c r="E38" t="s">
+        <v>84</v>
+      </c>
+      <c r="G38" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B39" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B39" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C39" t="s">
+        <v>89</v>
+      </c>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="D41" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B46" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="C46" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C47" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="C48" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
@@ -932,32 +1228,32 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D52" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B53" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B54" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F57" t="s">
         <v>51</v>
@@ -965,7 +1261,7 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F58" t="s">
         <v>50</v>
@@ -996,7 +1292,13 @@
         <v>48</v>
       </c>
     </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B64" t="s">
+        <v>78</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>